--- a/exercise2/zad2diag.xlsx
+++ b/exercise2/zad2diag.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\intellij-workspace\math_linguistics\exercise2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,87 +574,87 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -685,11 +688,11 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -712,7 +715,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
@@ -723,11 +726,11 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -747,63 +750,63 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -817,7 +820,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -837,11 +840,11 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
@@ -852,7 +855,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
@@ -875,11 +878,11 @@
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
@@ -887,7 +890,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -913,80 +916,115 @@
       <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
